--- a/TestData/NaukariLoginDetails.xlsx
+++ b/TestData/NaukariLoginDetails.xlsx
@@ -27,7 +27,7 @@
     <t>8600906765</t>
   </si>
   <si>
-    <t>3+ Years of Experience in Software Testing , Skills in Completing Black Box Testing , Functional ,Re-testing, Smoke , Regression , API ,Database Testing , Automation Testing .Writing and Executing test cases and Defect logging.</t>
+    <t>Immediate  joiner, looking for a better opportunity as a Software QA Engineer. Qualified  QA Engineer with 3.3 years of relevant industrial experience. Automation Testing, Manual Testing, API Testing, java, Web Application Testing, QA testing,  Agile method, JIRA.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
